--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D3351-A0F9-4591-841A-69CE015449BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82BC0D-5DD7-4A21-873A-4F8A27453F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1440" windowWidth="30630" windowHeight="25635" tabRatio="329" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="255" windowWidth="20565" windowHeight="14700" tabRatio="329" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Overview" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -379,9 +381,6 @@
     <t>72</t>
   </si>
   <si>
-    <t>5600</t>
-  </si>
-  <si>
     <t>12 - 20</t>
   </si>
   <si>
@@ -594,9 +593,6 @@
     <t>Increase [2],[5]</t>
   </si>
   <si>
-    <t>Decreasing back to baseline [2],[5]</t>
-  </si>
-  <si>
     <t>114</t>
   </si>
   <si>
@@ -606,19 +602,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>5750</t>
-  </si>
-  <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>75</t>
   </si>
   <si>
     <t>64</t>
@@ -728,7 +712,19 @@
     <t>Note: No neurological effects currently modeled. Many of the cardiac effects are a result of behavioral effects. [S2] Therefore, these effects will not be present until the Engine neuological model is implemented.</t>
   </si>
   <si>
-    <t>20</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Back to baseline [2],[5]</t>
   </si>
 </sst>
 </file>
@@ -1336,6 +1332,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1358,18 +1366,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1735,20 +1731,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1779,52 +1775,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
+      <c r="B9" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -1844,61 +1840,61 @@
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+      <c r="B14" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
+      <c r="B17" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1912,21 +1908,21 @@
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -1972,6 +1968,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
@@ -1981,12 +1983,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,10 +2001,10 @@
   <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="23" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="23" topLeftCell="BH24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomRight" activeCell="BK11" sqref="BK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,13 +2067,13 @@
         <v>23</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>25</v>
@@ -2089,19 +2085,19 @@
         <v>27</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="65" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>30</v>
@@ -2113,13 +2109,13 @@
         <v>31</v>
       </c>
       <c r="U1" s="65" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>32</v>
       </c>
       <c r="W1" s="65" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="X1" s="29" t="s">
         <v>33</v>
@@ -2143,61 +2139,61 @@
         <v>67</v>
       </c>
       <c r="AE1" s="65" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AF1" s="67" t="s">
         <v>68</v>
       </c>
       <c r="AG1" s="65" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AH1" s="67" t="s">
         <v>69</v>
       </c>
       <c r="AI1" s="65" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AJ1" s="68" t="s">
         <v>70</v>
       </c>
       <c r="AK1" s="65" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AL1" s="66" t="s">
         <v>71</v>
       </c>
       <c r="AM1" s="69" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AN1" s="66" t="s">
         <v>72</v>
       </c>
       <c r="AO1" s="69" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AP1" s="66" t="s">
         <v>73</v>
       </c>
       <c r="AQ1" s="69" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AR1" s="66" t="s">
         <v>74</v>
       </c>
       <c r="AS1" s="69" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AT1" s="66" t="s">
         <v>75</v>
       </c>
       <c r="AU1" s="69" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AV1" s="66" t="s">
         <v>76</v>
       </c>
       <c r="AW1" s="69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AX1" s="66" t="s">
         <v>77</v>
@@ -2209,43 +2205,43 @@
         <v>79</v>
       </c>
       <c r="BA1" s="69" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="BB1" s="66" t="s">
         <v>80</v>
       </c>
       <c r="BC1" s="69" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="BD1" s="66" t="s">
         <v>81</v>
       </c>
       <c r="BE1" s="69" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="BF1" s="66" t="s">
         <v>82</v>
       </c>
       <c r="BG1" s="69" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="BH1" s="66" t="s">
         <v>83</v>
       </c>
       <c r="BI1" s="69" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="BJ1" s="66" t="s">
         <v>84</v>
       </c>
       <c r="BK1" s="69" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="BL1" s="66" t="s">
         <v>85</v>
       </c>
       <c r="BM1" s="69" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" x14ac:dyDescent="0.25">
@@ -2259,10 +2255,10 @@
         <v>60</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>92</v>
@@ -2271,10 +2267,10 @@
         <v>92</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="J2" s="38" t="s">
         <v>37</v>
@@ -2286,19 +2282,19 @@
         <v>48</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="R2" s="40" t="s">
         <v>39</v>
@@ -2307,16 +2303,16 @@
         <v>40</v>
       </c>
       <c r="T2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>95</v>
-      </c>
       <c r="W2" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X2" s="44" t="s">
         <v>41</v>
@@ -2344,7 +2340,7 @@
         <v>95</v>
       </c>
       <c r="AG2" s="94">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="71">
         <v>40</v>
@@ -2409,7 +2405,7 @@
       </c>
       <c r="BK2" s="70"/>
       <c r="BL2" s="32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BM2" s="70"/>
     </row>
@@ -2425,53 +2421,53 @@
         <v>600</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="91">
         <v>75</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="91">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
       <c r="L3" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="91">
         <v>95</v>
       </c>
       <c r="N3" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="92">
         <v>114</v>
       </c>
       <c r="P3" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="92">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="R3" s="74"/>
       <c r="S3" s="74"/>
       <c r="T3" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U3" s="91">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V3" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W3" s="91">
         <v>0.96</v>
@@ -2489,25 +2485,25 @@
         <v>36.732999999999997</v>
       </c>
       <c r="AD3" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" s="94">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AF3" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" s="95">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="AF3" s="76" t="s">
+      <c r="AG3" s="91">
+        <v>80</v>
+      </c>
+      <c r="AH3" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="AG3" s="91">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="76" t="s">
-        <v>123</v>
-      </c>
       <c r="AI3" s="91">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ3" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="93">
         <v>7.38</v>
@@ -2553,56 +2549,56 @@
         <v>300</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="78" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>138</v>
+        <v>98</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="88"/>
       <c r="L4" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="R4" s="87"/>
       <c r="S4" s="89"/>
       <c r="T4" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V4" s="87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X4" s="44"/>
       <c r="Y4" s="45"/>
@@ -2611,28 +2607,28 @@
       <c r="AB4" s="49"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE4" s="94">
-        <v>0.04</v>
+        <v>107</v>
+      </c>
+      <c r="AE4" s="92">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AF4" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG4" s="91">
+        <v>90</v>
+      </c>
+      <c r="AH4" s="76" t="s">
         <v>124</v>
-      </c>
-      <c r="AG4" s="91">
-        <v>92</v>
-      </c>
-      <c r="AH4" s="76" t="s">
-        <v>125</v>
       </c>
       <c r="AI4" s="91">
         <v>40</v>
       </c>
       <c r="AJ4" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK4" s="93">
-        <v>7.43</v>
+        <v>166</v>
+      </c>
+      <c r="AK4" s="94">
+        <v>7.4</v>
       </c>
       <c r="AL4" s="77"/>
       <c r="AM4" s="77"/>
@@ -2675,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>87</v>
@@ -2719,85 +2715,85 @@
       <c r="AJ5" s="84"/>
       <c r="AK5" s="84"/>
       <c r="AL5" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="94">
+        <v>0.83</v>
+      </c>
+      <c r="AN5" s="86" t="s">
         <v>101</v>
-      </c>
-      <c r="AM5" s="94">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="AN5" s="86" t="s">
-        <v>102</v>
       </c>
       <c r="AO5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="AR5" s="86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="AT5" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AU5" s="95">
-        <v>2.2389999999999999</v>
+        <v>1.7789999999999999</v>
       </c>
       <c r="AV5" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW5" s="94">
-        <v>3.5670000000000002</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="AX5" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY5" s="94">
-        <v>3.1339999999999999</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="AZ5" s="86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BA5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="BB5" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="BD5" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BE5" s="95">
-        <v>1.1599999999999999</v>
+        <v>0.94879999999999998</v>
       </c>
       <c r="BF5" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="BH5" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI5" s="95">
-        <v>5.81</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="BJ5" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BK5" s="94">
-        <v>4.6399999999999997</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="BL5" s="32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BM5" s="70"/>
     </row>
@@ -2889,7 +2885,7 @@
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="G8" s="110" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>

--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82BC0D-5DD7-4A21-873A-4F8A27453F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071023F-EEED-40BA-9015-4CC1D3E3E258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="255" windowWidth="20565" windowHeight="14700" tabRatio="329" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24825" windowHeight="11385" tabRatio="406" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Overview" sheetId="8" r:id="rId1"/>
-    <sheet name="Asthma Attack Breakdown" sheetId="9" r:id="rId2"/>
+    <sheet name="Asthma Attack Breakdown" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="Asthma Attack" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Asthma Attack Breakdown'!$A$1:$BM$8</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -725,6 +726,164 @@
   </si>
   <si>
     <t>Back to baseline [2],[5]</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time  (s)</t>
+  </si>
+  <si>
+    <t>Sample Scenario Time  (s)</t>
+  </si>
+  <si>
+    <t>Heart Rate  (beats/min)</t>
+  </si>
+  <si>
+    <t>Systolic Pressure  (mmHg)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>Begin Asthma Attack
+(Severity 0.7)</t>
+  </si>
+  <si>
+    <t>Administer Albuterol
+(Albuterol inhaler used correctly, 90.0 ug dose, nozzle loss fraction 0.04)</t>
+  </si>
+  <si>
+    <t>10 minutes of asthma attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Onset in &lt; </t>
+  </si>
+  <si>
+    <t>Heart Stroke Volume (mL)</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure  (mmHg)</t>
+  </si>
+  <si>
+    <t>Cardiac Output (mL/min)</t>
+  </si>
+  <si>
+    <t>Respiration Rate (breaths/min)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation (fraction)</t>
+  </si>
+  <si>
+    <t>End Tidal CO2 (fraction)</t>
+  </si>
+  <si>
+    <t>PaO2 (mmHg)</t>
+  </si>
+  <si>
+    <t>PaCO2 (mmHg)</t>
+  </si>
+  <si>
+    <t>pH (mmHg)</t>
+  </si>
+  <si>
+    <t>Increase @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>Decrease @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="danger"&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;span class="danger"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t>Decrease @cite bergeronSME
+Decrease is expected with increased heart rate</t>
+  </si>
+  <si>
+    <t>No Change @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Increase  @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>Decrease  @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>Increase back to baseline  @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>Increase  @cite adams2012patient @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>Decrease  @cite adams2012patient @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>Decreased peak @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>71.5 ± 12 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>78.0 ± 12.7 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>32.3 ± 4.6 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>35.8 ± 6.9 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <r>
+      <t>Back to baseline @cite Mountain1990acid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @cite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Raimondi2013acid</t>
+    </r>
+  </si>
+  <si>
+    <t>Increase @cite Mountain1990acid @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>Back to baseline @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1060,6 +1219,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1067,7 +1252,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1331,6 +1516,30 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1372,6 +1581,15 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1719,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,20 +1949,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1775,52 +1993,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -1840,61 +2058,61 @@
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
     </row>
     <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
     </row>
     <row r="15" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1908,21 +2126,21 @@
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -2000,11 +2218,11 @@
   </sheetPr>
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="23" topLeftCell="BH24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="23" topLeftCell="AL24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="BK11" sqref="BK11"/>
+      <selection pane="bottomRight" activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,34 +3090,34 @@
       <c r="BM6" s="90"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
     </row>
     <row r="8" spans="1:65" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C9" s="62"/>
@@ -2935,4 +3153,442 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C7F09-B001-4E49-B466-E1E2EF602302}">
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE1" sqref="A1:AE4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB1" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC1" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE1" s="97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD2" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE2" s="97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="101">
+        <v>60</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="101">
+        <v>660</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="V3" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="X3" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z3" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA3" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB3" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC3" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD3" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE3" s="97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="101">
+        <v>660</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="101">
+        <v>960</v>
+      </c>
+      <c r="I4" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="V4" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="W4" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="X4" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB4" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC4" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD4" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE4" s="120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="121"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE6" s="121"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE7" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071023F-EEED-40BA-9015-4CC1D3E3E258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E80D08-D6F6-420A-BB7D-C5A8E2AD1815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24825" windowHeight="11385" tabRatio="406" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24825" windowHeight="11385" tabRatio="406" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Overview" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="210">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -758,20 +758,9 @@
     <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
   </si>
   <si>
-    <t>Begin Asthma Attack
-(Severity 0.7)</t>
-  </si>
-  <si>
-    <t>Administer Albuterol
-(Albuterol inhaler used correctly, 90.0 ug dose, nozzle loss fraction 0.04)</t>
-  </si>
-  <si>
     <t>10 minutes of asthma attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Drug Onset in &lt; </t>
-  </si>
-  <si>
     <t>Heart Stroke Volume (mL)</t>
   </si>
   <si>
@@ -814,28 +803,12 @@
     <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
   </si>
   <si>
-    <t>Decrease @cite bergeronSME
-Decrease is expected with increased heart rate</t>
-  </si>
-  <si>
     <t>No Change @cite bergeronSME</t>
   </si>
   <si>
     <t>Increase  @cite adams2012patient</t>
   </si>
   <si>
-    <t>Decrease  @cite adams2012patient</t>
-  </si>
-  <si>
-    <t>Increase back to baseline  @cite adams2012patient</t>
-  </si>
-  <si>
-    <t>Increase  @cite adams2012patient @cite Raimondi2013acid</t>
-  </si>
-  <si>
-    <t>Decrease  @cite adams2012patient @cite Raimondi2013acid</t>
-  </si>
-  <si>
     <t>Decreased peak @cite Nowak1983arterial</t>
   </si>
   <si>
@@ -851,32 +824,6 @@
     <t>35.8 ± 6.9 @cite Nowak1983arterial</t>
   </si>
   <si>
-    <r>
-      <t>Back to baseline @cite Mountain1990acid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @cite </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Raimondi2013acid</t>
-    </r>
-  </si>
-  <si>
     <t>Increase @cite Mountain1990acid @cite Raimondi2013acid</t>
   </si>
   <si>
@@ -884,6 +831,30 @@
   </si>
   <si>
     <t>&lt;/span&gt;|</t>
+  </si>
+  <si>
+    <t>Begin Asthma Attack (Severity 0.7)</t>
+  </si>
+  <si>
+    <t>Administer Albuterol (Albuterol inhaler used correctly, 90.0 ug dose, nozzle loss fraction 0.04)</t>
+  </si>
+  <si>
+    <t>Drug Onset in &lt; 5 min</t>
+  </si>
+  <si>
+    <t>Decrease; @cite bergeronSME Decrease is expected with increased heart rate</t>
+  </si>
+  <si>
+    <t>Increase @cite adams2012patient @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>Decrease @cite adams2012patient @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>Increase back to baseline @cite adams2012patient</t>
+  </si>
+  <si>
+    <t>Back to baseline @cite Mountain1990acid @cite Raimondi2013acid</t>
   </si>
 </sst>
 </file>
@@ -1516,12 +1487,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1540,6 +1505,33 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1552,44 +1544,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1949,20 +1920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1993,52 +1964,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -2058,61 +2029,61 @@
       <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
     </row>
     <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -2126,21 +2097,21 @@
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -2186,12 +2157,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B9:D9"/>
@@ -2201,6 +2166,12 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3090,34 +3061,34 @@
       <c r="BM6" s="90"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
     </row>
     <row r="8" spans="1:65" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C9" s="62"/>
@@ -3160,433 +3131,434 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE1" sqref="A1:AE4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="118" customWidth="1"/>
+    <col min="3" max="3" width="2" style="118" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="118" customWidth="1"/>
+    <col min="5" max="5" width="2" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="118" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="118" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="118" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="118" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="118" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" style="118" customWidth="1"/>
+    <col min="31" max="31" width="9" style="118" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>167</v>
       </c>
       <c r="B1" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D1" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="99" t="s">
+      <c r="G1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="99" t="s">
+      <c r="I1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="100" t="s">
+      <c r="K1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="N1" s="100" t="s">
+      <c r="U1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="100" t="s">
+      <c r="W1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="100" t="s">
+      <c r="Y1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="100" t="s">
+      <c r="AA1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB1" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="100" t="s">
+      <c r="AC1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z1" s="100" t="s">
+      <c r="AE1" s="99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD2" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE2" s="99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="99">
+        <v>60</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="99">
+        <v>660</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="AA1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB1" s="100" t="s">
+      <c r="K3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="R3" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="S3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="U3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" s="100" t="s">
+      <c r="W3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="X3" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z3" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA3" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB3" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC3" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="T2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="V2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="X2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD2" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE2" s="97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="101">
-        <v>60</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="101">
+      <c r="AD3" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE3" s="99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="99">
         <v>660</v>
       </c>
-      <c r="I3" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="104" t="s">
+      <c r="G4" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="99">
+        <v>960</v>
+      </c>
+      <c r="I4" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="J4" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="97" t="s">
+      <c r="P4" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="N3" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="R3" s="103" t="s">
+      <c r="T4" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="V4" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="W4" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA4" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB4" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="S3" s="97" t="s">
+      <c r="AC4" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="U3" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="V3" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="W3" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="X3" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y3" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" s="104" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA3" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB3" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC3" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD3" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE3" s="97" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="101">
-        <v>660</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="101">
-        <v>960</v>
-      </c>
-      <c r="I4" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="M4" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="R4" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="S4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="T4" s="104" t="s">
+      <c r="AD4" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE4" s="119" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="V4" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="W4" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="X4" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB4" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC4" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD4" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE4" s="120" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="121"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="120"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE6" s="121"/>
+      <c r="AE6" s="120"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE7" s="15"/>
+      <c r="AE7" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E80D08-D6F6-420A-BB7D-C5A8E2AD1815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C0C6E7-910F-4964-8062-BB39FECD2C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="24825" windowHeight="11385" tabRatio="406" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="208">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -752,9 +752,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>|&lt;span class="success"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
   </si>
   <si>
     <t>&lt;/span&gt;|&lt;span class="danger"&gt;</t>
-  </si>
-  <si>
-    <t>|&lt;span class="danger"&gt;</t>
   </si>
   <si>
     <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
@@ -1223,7 +1217,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1561,6 +1555,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3130,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C7F09-B001-4E49-B466-E1E2EF602302}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,13 +3202,13 @@
         <v>167</v>
       </c>
       <c r="L1" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="98" t="s">
         <v>178</v>
-      </c>
-      <c r="M1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="N1" s="98" t="s">
-        <v>179</v>
       </c>
       <c r="O1" s="99" t="s">
         <v>167</v>
@@ -3223,43 +3220,43 @@
         <v>167</v>
       </c>
       <c r="R1" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="98" t="s">
+      <c r="U1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="98" t="s">
+      <c r="W1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="98" t="s">
+      <c r="Y1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z1" s="98" t="s">
+      <c r="AA1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="AA1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AC1" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="98" t="s">
         <v>185</v>
-      </c>
-      <c r="AC1" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" s="98" t="s">
-        <v>186</v>
       </c>
       <c r="AE1" s="99" t="s">
         <v>167</v>
@@ -3365,13 +3362,13 @@
         <v>167</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="99" t="s">
         <v>167</v>
@@ -3385,74 +3382,74 @@
       <c r="H3" s="99">
         <v>660</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="122" t="s">
         <v>175</v>
       </c>
       <c r="J3" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="N3" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="O3" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q3" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" s="101" t="s">
+      <c r="W3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="X3" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z3" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="S3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="T3" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="U3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="V3" s="102" t="s">
+      <c r="AA3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB3" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC3" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="W3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="X3" s="102" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA3" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB3" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC3" s="99" t="s">
-        <v>189</v>
-      </c>
       <c r="AD3" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE3" s="99" t="s">
         <v>199</v>
-      </c>
-      <c r="AE3" s="99" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
@@ -3460,13 +3457,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="99" t="s">
         <v>167</v>
@@ -3480,74 +3477,74 @@
       <c r="H4" s="99">
         <v>960</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="K4" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="101" t="s">
-        <v>192</v>
-      </c>
       <c r="M4" s="99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N4" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O4" s="99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P4" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="99" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="Q4" s="122" t="s">
+        <v>175</v>
       </c>
       <c r="R4" s="101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S4" s="99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T4" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="V4" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="W4" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z4" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA4" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB4" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC4" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD4" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="U4" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="V4" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="W4" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="X4" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA4" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB4" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC4" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD4" s="102" t="s">
-        <v>209</v>
-      </c>
       <c r="AE4" s="119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">

--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C0C6E7-910F-4964-8062-BB39FECD2C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CDA36C-6615-4083-94DF-C96010FF9081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="24825" windowHeight="11385" tabRatio="406" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,18 +806,6 @@
     <t>Decreased peak @cite Nowak1983arterial</t>
   </si>
   <si>
-    <t>71.5 ± 12 @cite Nowak1983arterial</t>
-  </si>
-  <si>
-    <t>78.0 ± 12.7 @cite Nowak1983arterial</t>
-  </si>
-  <si>
-    <t>32.3 ± 4.6 @cite Nowak1983arterial</t>
-  </si>
-  <si>
-    <t>35.8 ± 6.9 @cite Nowak1983arterial</t>
-  </si>
-  <si>
     <t>Increase @cite Mountain1990acid @cite Raimondi2013acid</t>
   </si>
   <si>
@@ -849,6 +837,18 @@
   </si>
   <si>
     <t>Back to baseline @cite Mountain1990acid @cite Raimondi2013acid</t>
+  </si>
+  <si>
+    <t>71.5&amp;plusmn; 12 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>78.0 &amp;plusmn; 12.7 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>35.8 &amp;plusmn;6.9 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>32.3 &amp;plusmn; 4.6 @cite Nowak1983arterial</t>
   </si>
 </sst>
 </file>
@@ -3362,7 +3362,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C3" s="99" t="s">
         <v>167</v>
@@ -3392,7 +3392,7 @@
         <v>175</v>
       </c>
       <c r="L3" s="102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M3" s="99" t="s">
         <v>175</v>
@@ -3416,7 +3416,7 @@
         <v>175</v>
       </c>
       <c r="T3" s="102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="U3" s="99" t="s">
         <v>175</v>
@@ -3434,22 +3434,22 @@
         <v>175</v>
       </c>
       <c r="Z3" s="102" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AA3" s="99" t="s">
         <v>175</v>
       </c>
       <c r="AB3" s="102" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AC3" s="99" t="s">
         <v>188</v>
       </c>
       <c r="AD3" s="100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AE3" s="99" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
@@ -3457,13 +3457,13 @@
         <v>167</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E4" s="99" t="s">
         <v>167</v>
@@ -3511,40 +3511,40 @@
         <v>175</v>
       </c>
       <c r="T4" s="102" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U4" s="99" t="s">
         <v>175</v>
       </c>
       <c r="V4" s="102" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="W4" s="99" t="s">
         <v>189</v>
       </c>
       <c r="X4" s="101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y4" s="99" t="s">
         <v>175</v>
       </c>
       <c r="Z4" s="102" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AA4" s="99" t="s">
         <v>175</v>
       </c>
       <c r="AB4" s="102" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AC4" s="99" t="s">
         <v>175</v>
       </c>
       <c r="AD4" s="102" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AE4" s="119" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">

--- a/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/AsthmaAttackValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4D0DA-359A-44BB-A9EE-7CB024BBCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B66D07-D707-4301-99E1-AF4EDD2FFC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="8370" windowWidth="25785" windowHeight="23535" tabRatio="406" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17865" yWindow="8790" windowWidth="27840" windowHeight="22365" tabRatio="406" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma Attack Breakdown" sheetId="9" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
   <si>
     <t>Segment Number</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t>32.3 &amp;plusmn; 4.6 @cite Nowak1983arterial</t>
+  </si>
+  <si>
+    <t>|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;span class="danger"&gt;</t>
   </si>
 </sst>
 </file>
@@ -944,39 +950,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -985,46 +982,43 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,79 +1027,55 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1102,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1111,7 @@
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1189,16 +1159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1225,9 +1192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,9 +1232,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,26 +1267,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1352,26 +1302,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1548,7 +1481,7 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="4" ySplit="23" topLeftCell="AL24" activePane="bottomRight" state="frozen"/>
@@ -1559,919 +1492,897 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="33" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="34" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="22" style="34" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="34" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="33" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="34" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="33" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="34" customWidth="1"/>
-    <col min="22" max="22" width="27" style="33" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" style="34" customWidth="1"/>
-    <col min="24" max="24" width="25.85546875" style="33" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="34" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="28.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="35.140625" style="33" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="36.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" style="24" customWidth="1"/>
-    <col min="31" max="37" width="23.5703125" style="24" customWidth="1"/>
-    <col min="38" max="38" width="23" style="24" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.85546875" style="24" customWidth="1"/>
-    <col min="40" max="59" width="26.7109375" style="24" customWidth="1"/>
-    <col min="60" max="67" width="30.85546875" style="24" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="24"/>
+    <col min="4" max="4" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="28" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22" style="29" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="29" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="28" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="29" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="28" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="29" customWidth="1"/>
+    <col min="22" max="22" width="27" style="28" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" style="29" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="29" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="28.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="35.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="36.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="23.85546875" style="20" customWidth="1"/>
+    <col min="31" max="37" width="23.5703125" style="20" customWidth="1"/>
+    <col min="38" max="38" width="23" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.85546875" style="20" customWidth="1"/>
+    <col min="40" max="59" width="26.7109375" style="20" customWidth="1"/>
+    <col min="60" max="67" width="30.85546875" style="20" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:65" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="45" t="s">
+      <c r="AM1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AN1" s="42" t="s">
+      <c r="AN1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="45" t="s">
+      <c r="AO1" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="42" t="s">
+      <c r="AP1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="45" t="s">
+      <c r="AQ1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="AR1" s="42" t="s">
+      <c r="AR1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="45" t="s">
+      <c r="AS1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="45" t="s">
+      <c r="AU1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="45" t="s">
+      <c r="AW1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AX1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="45" t="s">
+      <c r="AY1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="42" t="s">
+      <c r="AZ1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="45" t="s">
+      <c r="BA1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="BB1" s="42" t="s">
+      <c r="BB1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="45" t="s">
+      <c r="BC1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" s="42" t="s">
+      <c r="BD1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="45" t="s">
+      <c r="BE1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="BF1" s="42" t="s">
+      <c r="BF1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="45" t="s">
+      <c r="BG1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="BH1" s="42" t="s">
+      <c r="BH1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="45" t="s">
+      <c r="BI1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="BJ1" s="42" t="s">
+      <c r="BJ1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BK1" s="45" t="s">
+      <c r="BK1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="BL1" s="42" t="s">
+      <c r="BL1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="45" t="s">
+      <c r="BM1" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>60</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="11" t="s">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="19">
         <v>40.658000000000001</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="6">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AE2" s="70">
+      <c r="AE2" s="58">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AF2" s="47">
+      <c r="AF2" s="6">
         <v>95</v>
       </c>
-      <c r="AG2" s="70">
+      <c r="AG2" s="58">
         <v>88</v>
       </c>
-      <c r="AH2" s="47">
+      <c r="AH2" s="6">
         <v>40</v>
       </c>
-      <c r="AI2" s="70">
+      <c r="AI2" s="58">
         <v>40</v>
       </c>
-      <c r="AJ2" s="47">
+      <c r="AJ2" s="6">
         <v>7.4</v>
       </c>
-      <c r="AK2" s="70">
+      <c r="AK2" s="58">
         <v>7.4</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="8">
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="6">
         <v>4</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="8">
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="6">
         <v>3.37</v>
       </c>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="8">
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="6">
         <v>5.117</v>
       </c>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="8">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="6">
         <v>2.4</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="8">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="6">
         <v>3.63</v>
       </c>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="8">
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="6">
         <v>3.16</v>
       </c>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="8">
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="6">
         <v>171.1</v>
       </c>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="8">
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="6">
         <v>443</v>
       </c>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="8">
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="6">
         <v>1.4</v>
       </c>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="8">
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="6">
         <v>6.5</v>
       </c>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="8">
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="8" t="s">
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="BM2" s="46"/>
+      <c r="BM2" s="38"/>
     </row>
-    <row r="3" spans="1:65" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:65" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <f>B2+C2</f>
         <v>60</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="7">
         <v>600</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="55">
         <v>75</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="55">
         <v>71</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="55">
         <v>95</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="56">
         <v>114</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="56">
         <v>5400</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="55">
         <v>32</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="55">
         <v>0.96</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="22" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="51">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="41">
         <v>36.732999999999997</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="70">
+      <c r="AE3" s="58">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="67">
+      <c r="AG3" s="55">
         <v>80</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AH3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="67">
+      <c r="AI3" s="55">
         <v>44</v>
       </c>
-      <c r="AJ3" s="52" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="69">
+      <c r="AK3" s="57">
         <v>7.38</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="53"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
     </row>
     <row r="4" spans="1:65" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <f>B3+C3</f>
         <v>660</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>300</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="63" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="63"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="50" t="s">
+      <c r="R4" s="51"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="10" t="s">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="56">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AG4" s="55">
         <v>90</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="67">
+      <c r="AI4" s="55">
         <v>40</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AK4" s="70">
+      <c r="AK4" s="58">
         <v>7.4</v>
       </c>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="53"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
     </row>
     <row r="5" spans="1:65" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <f>B4+C4</f>
         <v>960</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>60</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="55" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55" t="s">
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="60">
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="48">
         <v>41.706000000000003</v>
       </c>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="62" t="s">
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AM5" s="70">
+      <c r="AM5" s="58">
         <v>0.83</v>
       </c>
-      <c r="AN5" s="62" t="s">
+      <c r="AN5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AO5" s="61" t="s">
+      <c r="AO5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AP5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AQ5" s="61" t="s">
+      <c r="AQ5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AR5" s="62" t="s">
+      <c r="AR5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AS5" s="61" t="s">
+      <c r="AS5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AT5" s="62" t="s">
+      <c r="AT5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="71">
+      <c r="AU5" s="59">
         <v>1.7789999999999999</v>
       </c>
-      <c r="AV5" s="62" t="s">
+      <c r="AV5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AW5" s="70">
+      <c r="AW5" s="58">
         <v>2.9649999999999999</v>
       </c>
-      <c r="AX5" s="62" t="s">
+      <c r="AX5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="58">
         <v>2.6360000000000001</v>
       </c>
-      <c r="AZ5" s="62" t="s">
+      <c r="AZ5" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="BA5" s="61" t="s">
+      <c r="BA5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="BB5" s="8" t="s">
+      <c r="BB5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BC5" s="61" t="s">
+      <c r="BC5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="62" t="s">
+      <c r="BD5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="BE5" s="71">
+      <c r="BE5" s="59">
         <v>0.94879999999999998</v>
       </c>
-      <c r="BF5" s="62" t="s">
+      <c r="BF5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="BG5" s="61" t="s">
+      <c r="BG5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="BH5" s="62" t="s">
+      <c r="BH5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="BI5" s="71">
+      <c r="BI5" s="59">
         <v>4.7439999999999998</v>
       </c>
-      <c r="BJ5" s="62" t="s">
+      <c r="BJ5" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="BK5" s="70">
+      <c r="BK5" s="58">
         <v>3.7949999999999999</v>
       </c>
-      <c r="BL5" s="8" t="s">
+      <c r="BL5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="BM5" s="46"/>
+      <c r="BM5" s="38"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <f>B5+C5</f>
         <v>1020</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="54"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="1:65" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="G8" s="86" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="G8" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="P9" s="37"/>
-      <c r="R9" s="37"/>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="P10" s="37"/>
-      <c r="R10" s="37"/>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="P11" s="37"/>
-      <c r="R11" s="37"/>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="P12" s="37"/>
-      <c r="R12" s="37"/>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="P13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2489,437 +2400,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C7F09-B001-4E49-B466-E1E2EF602302}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="2" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="80" customWidth="1"/>
-    <col min="5" max="5" width="2" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="80" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="80" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="80" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="80" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" style="80" customWidth="1"/>
-    <col min="31" max="31" width="9" style="80" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="2" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="2" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="68" customWidth="1"/>
+    <col min="5" max="5" width="2" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="68" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="68" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="68" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="68" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="68" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" style="68" customWidth="1"/>
+    <col min="31" max="31" width="9" style="68" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="74" t="s">
+      <c r="K1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="74" t="s">
+      <c r="M1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="74" t="s">
+      <c r="O1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="74" t="s">
+      <c r="Q1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="74" t="s">
+      <c r="S1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="74" t="s">
+      <c r="U1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="74" t="s">
+      <c r="W1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="74" t="s">
+      <c r="Y1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="74" t="s">
+      <c r="AA1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD1" s="74" t="s">
+      <c r="AC1" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AE1" s="63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="74" t="s">
+      <c r="G2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="74" t="s">
+      <c r="I2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="74" t="s">
+      <c r="K2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="74" t="s">
+      <c r="O2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="74" t="s">
+      <c r="Q2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="S2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" s="74" t="s">
+      <c r="S2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="74" t="s">
+      <c r="U2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="74" t="s">
+      <c r="W2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Y2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB2" s="74" t="s">
+      <c r="AA2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" s="74" t="s">
+      <c r="AC2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="75">
+      <c r="E3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="63">
         <v>60</v>
       </c>
-      <c r="G3" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="75">
+      <c r="G3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="63">
         <v>660</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="L3" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="O3" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="75" t="s">
+      <c r="T3" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="75" t="s">
+      <c r="V3" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="U3" s="75" t="s">
+      <c r="X3" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="W3" s="75" t="s">
+      <c r="Z3" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z3" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA3" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB3" s="78" t="s">
+      <c r="AB3" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AD3" s="76" t="s">
+      <c r="AD3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="75">
+      <c r="E4" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="63">
         <v>660</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="75">
+      <c r="G4" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="63">
         <v>960</v>
       </c>
-      <c r="I4" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="76" t="s">
+      <c r="I4" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="Y4" s="75" t="s">
+      <c r="Y4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="75" t="s">
+      <c r="AA4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="78" t="s">
+      <c r="AB4" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="AC4" s="75" t="s">
+      <c r="AC4" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AD4" s="78" t="s">
+      <c r="AD4" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="AE4" s="81" t="s">
+      <c r="AE4" s="69" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="82"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="70"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE6" s="82"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE7" s="83"/>
+      <c r="AE6" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
